--- a/DDAf_2023_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -2610,7 +2610,7 @@
         <v>44.6</v>
       </c>
       <c r="H30" s="21">
-        <v>4.9820239000000002E-2</v>
+        <v>4.9820229000000001E-2</v>
       </c>
       <c r="I30" s="21">
         <v>5.8943675000000001E-2</v>
@@ -4884,13 +4884,13 @@
         <v>2.4247191011235998</v>
       </c>
       <c r="D83" s="50">
-        <v>8.1404494382023493</v>
+        <v>8.1404494382022499</v>
       </c>
       <c r="E83" s="50">
         <v>20.025842696629201</v>
       </c>
       <c r="F83" s="50">
-        <v>35.343820234719097</v>
+        <v>35.343820224719103</v>
       </c>
       <c r="G83" s="51">
         <v>42.822471910112398</v>

--- a/DDAf_2023_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CFD7AF0-E5C2-45AF-AB79-9ADE64FA8F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F787719-E78E-4F0D-B636-2B1669102C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{F1D4E987-421D-46BB-B11E-D93E26803CD0}"/>
+    <workbookView xWindow="29940" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{260BC920-A72A-4A95-8E4E-24ABBFEA537D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A4A544-3637-4B5D-88AB-9041187E3577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BAD6CC-F46C-4194-B28E-B51441581A16}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4564,11 +4564,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{31A2E813-F90D-415A-B932-0E3E99581820}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{44E0E2B2-E9E8-41BA-A85F-4FAAD5922877}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{DA1E3BFD-5577-4518-BF8E-784DC9FF37F4}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{2CA83473-CF4A-4FA4-9939-9CB6F9636A15}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{8EE780AE-CED1-4282-893D-510A4C2DA3C6}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{314C0743-8752-4538-8ADE-5297918B8374}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BC4160AC-C260-467D-B1B1-C466F76F4C83}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{DD5BA086-D2B7-4B25-B48C-D7AE76F48DC9}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{847A253C-4AE1-4EE7-9A44-4B0904794D8B}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{3D21901D-4F7C-46A3-87E8-3360B128A6F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F787719-E78E-4F0D-B636-2B1669102C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{389650AD-A294-4D68-8B06-62FF42C3D657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{260BC920-A72A-4A95-8E4E-24ABBFEA537D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{015DA2B2-A75E-46DB-8802-3D31144B6C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab11'!$A$1:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab11'!$A$1:$H$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="171">
   <si>
     <t>Tableau 11 : Infrastructure de communications</t>
   </si>
@@ -261,7 +261,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -339,7 +339,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -393,7 +393,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -534,7 +534,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Source : Union internationale des télécommunications - Base de données en ligne des indicateurs TIC (récupéré le 19/11/2021), GSMA Intelligence (mise à jour en juin 2020), Gallup World Poll (consulté le 15 décembre 2019).</t>
+    <t>Source : Union internationale des télécommunications - Base de données en ligne des indicateurs TIC (récupéré le 28/05/2023), GSMA Intelligence (mise à jour en juin 2020), Gallup World Poll (consulté le 15 décembre 2019).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BAD6CC-F46C-4194-B28E-B51441581A16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D3A9C2-5732-41A1-9731-5A0B01FEF7F3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1394,19 +1394,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="10">
-        <v>0.355605</v>
+        <v>0.68683038771185001</v>
       </c>
       <c r="D3" s="10">
-        <v>14.3391</v>
+        <v>32.129391969865502</v>
       </c>
       <c r="E3" s="10">
-        <v>46.598599999999998</v>
+        <v>45.837741396719302</v>
       </c>
       <c r="F3" s="10">
-        <v>0.39190799999999998</v>
+        <v>0.38550901989602998</v>
       </c>
       <c r="G3" s="11">
-        <v>21.179400000000001</v>
+        <v>20.8336027521893</v>
       </c>
       <c r="H3" s="12">
         <v>43864</v>
@@ -1426,22 +1426,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="14">
-        <v>1.7765200000000001</v>
+        <v>10.191831454735</v>
       </c>
       <c r="D4" s="14">
-        <v>47</v>
+        <v>64.826325416798795</v>
       </c>
       <c r="E4" s="14">
-        <v>162.64099999999999</v>
+        <v>149.88826668138799</v>
       </c>
       <c r="F4" s="14">
-        <v>6.1894900000000002</v>
+        <v>5.7041599358643502</v>
       </c>
       <c r="G4" s="15">
-        <v>88.438699999999997</v>
-      </c>
-      <c r="H4" s="16">
-        <v>11760</v>
+        <v>81.504075285774107</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="I4" s="14">
         <v>80.17</v>
@@ -1458,19 +1458,19 @@
         <v>17</v>
       </c>
       <c r="C5" s="18">
-        <v>0.71123400000000003</v>
+        <v>2.3134615954703102</v>
       </c>
       <c r="D5" s="18">
-        <v>47</v>
+        <v>54.0343671991238</v>
       </c>
       <c r="E5" s="18">
-        <v>93.527299999999997</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>13</v>
+        <v>91.850723273424606</v>
+      </c>
+      <c r="F5" s="18">
+        <v>3.6342790307563302</v>
+      </c>
+      <c r="G5" s="19">
+        <v>69.455965349222396</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>13</v>
@@ -1490,22 +1490,22 @@
         <v>19</v>
       </c>
       <c r="C6" s="18">
-        <v>0.273345</v>
+        <v>0.22447983674194</v>
       </c>
       <c r="D6" s="18">
-        <v>29</v>
+        <v>42.301733569272997</v>
       </c>
       <c r="E6" s="18">
-        <v>74.493799999999993</v>
+        <v>75.555173154357604</v>
       </c>
       <c r="F6" s="18">
-        <v>0.63173199999999996</v>
+        <v>0.58179396882421996</v>
       </c>
       <c r="G6" s="19">
-        <v>64.047600000000003</v>
+        <v>59.0681052539828</v>
       </c>
       <c r="H6" s="20">
-        <v>5484</v>
+        <v>5440</v>
       </c>
       <c r="I6" s="18">
         <v>75</v>
@@ -1522,19 +1522,19 @@
         <v>21</v>
       </c>
       <c r="C7" s="18">
-        <v>6.2684599999999993E-2</v>
+        <v>6.3244885279560001E-2</v>
       </c>
       <c r="D7" s="18">
-        <v>13.7822</v>
+        <v>13.4391998497708</v>
       </c>
       <c r="E7" s="18">
-        <v>47.781100000000002</v>
+        <v>47.176912141867199</v>
       </c>
       <c r="F7" s="18">
-        <v>7.0326799999999995E-2</v>
+        <v>6.9437462213139997E-2</v>
       </c>
       <c r="G7" s="19">
-        <v>31.8459</v>
+        <v>31.4744258821475</v>
       </c>
       <c r="H7" s="20">
         <v>9614</v>
@@ -1554,19 +1554,19 @@
         <v>23</v>
       </c>
       <c r="C8" s="18">
-        <v>0.23725199999999999</v>
+        <v>0.22451556677078999</v>
       </c>
       <c r="D8" s="18">
-        <v>10</v>
+        <v>14.638552675214999</v>
       </c>
       <c r="E8" s="18">
-        <v>48.6509</v>
+        <v>48.780167601131801</v>
       </c>
       <c r="F8" s="18">
-        <v>0.26605699999999999</v>
+        <v>0.26676378654604999</v>
       </c>
       <c r="G8" s="19">
-        <v>17.669699999999999</v>
+        <v>17.7166273272822</v>
       </c>
       <c r="H8" s="20">
         <v>78503</v>
@@ -1586,19 +1586,19 @@
         <v>25</v>
       </c>
       <c r="C9" s="18">
-        <v>2.5310600000000001</v>
+        <v>3.1649215900699801</v>
       </c>
       <c r="D9" s="18">
-        <v>51</v>
+        <v>44.826814804235497</v>
       </c>
       <c r="E9" s="18">
-        <v>113.194</v>
+        <v>115.409311693896</v>
       </c>
       <c r="F9" s="18">
-        <v>5.6001700000000003</v>
+        <v>5.7208159421640401</v>
       </c>
       <c r="G9" s="19">
-        <v>66.215800000000002</v>
+        <v>67.5408845749525</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>13</v>
@@ -1618,22 +1618,22 @@
         <v>27</v>
       </c>
       <c r="C10" s="18">
-        <v>2.3996900000000001</v>
+        <v>2.21601074767517</v>
       </c>
       <c r="D10" s="18">
-        <v>56.167400000000001</v>
+        <v>69.696875076026799</v>
       </c>
       <c r="E10" s="18">
-        <v>165.6</v>
+        <v>166.94332153695899</v>
       </c>
       <c r="F10" s="18">
-        <v>3.45763</v>
+        <v>3.4856819647682298</v>
       </c>
       <c r="G10" s="19">
-        <v>102.22</v>
+        <v>103.04961062322801</v>
       </c>
       <c r="H10" s="20">
-        <v>351259</v>
+        <v>1178700</v>
       </c>
       <c r="I10" s="18">
         <v>95</v>
@@ -1650,19 +1650,19 @@
         <v>29</v>
       </c>
       <c r="C11" s="14">
-        <v>0.249918</v>
+        <v>0.43490194141236999</v>
       </c>
       <c r="D11" s="14">
-        <v>27.852599999999999</v>
+        <v>16.8</v>
       </c>
       <c r="E11" s="14">
-        <v>96.414400000000001</v>
+        <v>93.689663222559503</v>
       </c>
       <c r="F11" s="14">
-        <v>0.54150900000000002</v>
+        <v>0.52620505985780996</v>
       </c>
       <c r="G11" s="15">
-        <v>51.071599999999997</v>
+        <v>49.6282876663103</v>
       </c>
       <c r="H11" s="16">
         <v>52081</v>
@@ -1682,19 +1682,19 @@
         <v>31</v>
       </c>
       <c r="C12" s="18">
-        <v>1.40632</v>
+        <v>1.2984386521065601</v>
       </c>
       <c r="D12" s="18">
-        <v>27.055499999999999</v>
+        <v>26.588274073439699</v>
       </c>
       <c r="E12" s="18">
-        <v>90.1023</v>
+        <v>85.940989180576906</v>
       </c>
       <c r="F12" s="18">
-        <v>1.8144499999999999</v>
+        <v>1.73064659156391</v>
       </c>
       <c r="G12" s="19">
-        <v>51.6875</v>
+        <v>49.300346840505497</v>
       </c>
       <c r="H12" s="20">
         <v>116927</v>
@@ -1714,22 +1714,22 @@
         <v>33</v>
       </c>
       <c r="C13" s="23">
-        <v>1.079625825295</v>
+        <v>1.2221270288873201</v>
       </c>
       <c r="D13" s="23">
-        <v>30.7070642878063</v>
+        <v>38.151543532193998</v>
       </c>
       <c r="E13" s="23">
-        <v>96.967358477121294</v>
+        <v>96.449358395750394</v>
       </c>
       <c r="F13" s="23">
-        <v>1.6138477427629701</v>
+        <v>1.6204143768755701</v>
       </c>
       <c r="G13" s="24">
-        <v>55.494865292927301</v>
+        <v>55.2713037810949</v>
       </c>
       <c r="H13" s="25">
-        <v>152627.25705615501</v>
+        <v>428414.418126893</v>
       </c>
       <c r="I13" s="23">
         <v>64.960921736152997</v>
@@ -1746,19 +1746,19 @@
         <v>35</v>
       </c>
       <c r="C14" s="18">
-        <v>3.5211300000000001E-2</v>
+        <v>3.46147444409E-2</v>
       </c>
       <c r="D14" s="18">
-        <v>2.6607500000000002</v>
+        <v>2.73144338771526</v>
       </c>
       <c r="E14" s="18">
-        <v>56.649700000000003</v>
+        <v>55.007394627194103</v>
       </c>
       <c r="F14" s="18">
-        <v>0.18156900000000001</v>
+        <v>0.17630556307379</v>
       </c>
       <c r="G14" s="19">
-        <v>11.1435</v>
+        <v>10.8204170869531</v>
       </c>
       <c r="H14" s="20">
         <v>6163</v>
@@ -1778,22 +1778,22 @@
         <v>37</v>
       </c>
       <c r="C15" s="18">
-        <v>7.4436100000000005E-2</v>
+        <v>2.7276306177998699</v>
       </c>
       <c r="D15" s="18">
-        <v>23.202999999999999</v>
+        <v>36.539182395538603</v>
       </c>
       <c r="E15" s="18">
-        <v>82.703699999999998</v>
+        <v>83.005402806517793</v>
       </c>
       <c r="F15" s="18">
-        <v>3.3096199999999998</v>
+        <v>3.3216960399367901</v>
       </c>
       <c r="G15" s="19">
-        <v>14.6295</v>
+        <v>18.737697247895401</v>
       </c>
       <c r="H15" s="20">
-        <v>20280</v>
+        <v>20333</v>
       </c>
       <c r="I15" s="18">
         <v>75</v>
@@ -1809,20 +1809,20 @@
       <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="18">
-        <v>1.30294E-2</v>
+      <c r="C16" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="D16" s="18">
-        <v>4.3392499999999998</v>
+        <v>7.50916144864809</v>
       </c>
       <c r="E16" s="18">
-        <v>33.619199999999999</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>13</v>
+        <v>30.623819904463598</v>
+      </c>
+      <c r="F16" s="18">
+        <v>3.8392697401809998E-2</v>
       </c>
       <c r="G16" s="19">
-        <v>5.0293099999999997</v>
+        <v>4.5812086174712903</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>13</v>
@@ -1841,23 +1841,23 @@
       <c r="B17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="27">
-        <v>1.2534099999999999E-3</v>
+      <c r="C17" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="27">
-        <v>6.5</v>
+        <v>8.3641712846982195</v>
       </c>
       <c r="E17" s="27">
-        <v>48.064799999999998</v>
+        <v>47.528385242365097</v>
       </c>
       <c r="F17" s="27">
-        <v>4.0910799999999997E-2</v>
+        <v>4.0454233327169999E-2</v>
       </c>
       <c r="G17" s="28">
-        <v>2.9837699999999998</v>
+        <v>2.9504678714388799</v>
       </c>
       <c r="H17" s="29">
-        <v>18909</v>
+        <v>11752</v>
       </c>
       <c r="I17" s="27">
         <v>30</v>
@@ -1873,17 +1873,17 @@
       <c r="B18" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="27">
-        <v>1.05553E-2</v>
-      </c>
-      <c r="D18" s="27">
-        <v>8.65</v>
+      <c r="C18" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="27">
-        <v>98.9298</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>13</v>
+        <v>91.816228100723606</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0.30516635874782999</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>13</v>
@@ -1906,19 +1906,19 @@
         <v>45</v>
       </c>
       <c r="C19" s="14">
-        <v>5.4955500000000001E-3</v>
+        <v>3.3386045950999997E-2</v>
       </c>
       <c r="D19" s="14">
-        <v>8.6198999999999995</v>
+        <v>16.4811891095164</v>
       </c>
       <c r="E19" s="14">
-        <v>42.773299999999999</v>
+        <v>41.290726439319599</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="15">
-        <v>19.529800000000002</v>
+        <v>18.852860998751002</v>
       </c>
       <c r="H19" s="16">
         <v>32920</v>
@@ -1938,19 +1938,19 @@
         <v>47</v>
       </c>
       <c r="C20" s="27">
-        <v>0.123761</v>
+        <v>6.265471799425E-2</v>
       </c>
       <c r="D20" s="27">
-        <v>26.24</v>
+        <v>49.1336630231973</v>
       </c>
       <c r="E20" s="27">
-        <v>44.8583</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>13</v>
+        <v>39.728762658311403</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0.70829236505904003</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0.51512172004293999</v>
       </c>
       <c r="H20" s="29" t="s">
         <v>13</v>
@@ -1970,19 +1970,19 @@
         <v>49</v>
       </c>
       <c r="C21" s="27">
-        <v>1.3730599999999999</v>
+        <v>1.9457177590419199</v>
       </c>
       <c r="D21" s="27">
-        <v>62</v>
+        <v>68.685502992311299</v>
       </c>
       <c r="E21" s="27">
-        <v>137.75399999999999</v>
+        <v>133.44166585666201</v>
       </c>
       <c r="F21" s="27">
-        <v>1.0260199999999999</v>
+        <v>0.9938977682222</v>
       </c>
       <c r="G21" s="28">
-        <v>94.3001</v>
+        <v>91.348216013476105</v>
       </c>
       <c r="H21" s="29" t="s">
         <v>13</v>
@@ -2002,19 +2002,19 @@
         <v>51</v>
       </c>
       <c r="C22" s="18">
-        <v>0.73781699999999995</v>
+        <v>1.1489153452463201</v>
       </c>
       <c r="D22" s="18">
-        <v>29.9312</v>
+        <v>30.231615445368</v>
       </c>
       <c r="E22" s="18">
-        <v>77.078100000000006</v>
+        <v>77.242205229288103</v>
       </c>
       <c r="F22" s="18">
-        <v>2.2245400000000002</v>
+        <v>2.22927413454862</v>
       </c>
       <c r="G22" s="19">
-        <v>34.343600000000002</v>
+        <v>34.416749379074503</v>
       </c>
       <c r="H22" s="20">
         <v>2317</v>
@@ -2034,22 +2034,22 @@
         <v>52</v>
       </c>
       <c r="C23" s="23">
-        <v>4.0216391916450003E-2</v>
+        <v>0.59402790883348</v>
       </c>
       <c r="D23" s="23">
-        <v>11.1473993005268</v>
+        <v>18.7502916306929</v>
       </c>
       <c r="E23" s="23">
-        <v>53.931592347181201</v>
+        <v>52.502388497850703</v>
       </c>
       <c r="F23" s="23">
-        <v>1.61667554011295</v>
+        <v>1.37215111555215</v>
       </c>
       <c r="G23" s="24">
-        <v>16.904047513984601</v>
+        <v>16.945197580221201</v>
       </c>
       <c r="H23" s="25">
-        <v>26831.6676129425</v>
+        <v>26039.1093789486</v>
       </c>
       <c r="I23" s="23">
         <v>38.4420105179953</v>
@@ -2066,19 +2066,19 @@
         <v>54</v>
       </c>
       <c r="C24" s="18">
-        <v>0.183943</v>
+        <v>0.14736419050171001</v>
       </c>
       <c r="D24" s="18">
-        <v>8.4781700000000004</v>
+        <v>16.383751222402299</v>
       </c>
       <c r="E24" s="18">
-        <v>67.602199999999996</v>
+        <v>72.721641090992804</v>
       </c>
       <c r="F24" s="18">
-        <v>1.18018</v>
+        <v>1.26955470766866</v>
       </c>
       <c r="G24" s="19">
-        <v>9.4644899999999996</v>
+        <v>72.585481917505504</v>
       </c>
       <c r="H24" s="20">
         <v>4600</v>
@@ -2098,19 +2098,19 @@
         <v>56</v>
       </c>
       <c r="C25" s="18">
-        <v>2.6600700000000002</v>
+        <v>2.29811146294659</v>
       </c>
       <c r="D25" s="18">
-        <v>55.681399999999996</v>
+        <v>59.3419660483464</v>
       </c>
       <c r="E25" s="18">
-        <v>42.510599999999997</v>
+        <v>38.5352245915713</v>
       </c>
       <c r="F25" s="18">
-        <v>3.81148</v>
+        <v>3.4550472349007499</v>
       </c>
       <c r="G25" s="19">
-        <v>23.624600000000001</v>
+        <v>21.4153896576703</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>13</v>
@@ -2130,16 +2130,16 @@
         <v>58</v>
       </c>
       <c r="C26" s="18">
-        <v>2.9300699999999999E-2</v>
+        <v>0.14061264366394</v>
       </c>
       <c r="D26" s="18">
-        <v>1.30891</v>
+        <v>8.8323083841586403</v>
       </c>
       <c r="E26" s="18">
-        <v>20.364000000000001</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>13</v>
+        <v>37.4697969428533</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1.88635133350749</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>13</v>
@@ -2162,19 +2162,19 @@
         <v>60</v>
       </c>
       <c r="C27" s="18">
-        <v>5.9163599999999997E-2</v>
+        <v>0.1809014011334</v>
       </c>
       <c r="D27" s="18">
-        <v>18.618099999999998</v>
+        <v>16.152325528808099</v>
       </c>
       <c r="E27" s="18">
-        <v>37.2181</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>13</v>
+        <v>36.733072034307803</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1.0970850712536599</v>
+      </c>
+      <c r="G27" s="19">
+        <v>16.746320125182699</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>13</v>
@@ -2194,19 +2194,19 @@
         <v>62</v>
       </c>
       <c r="C28" s="18">
-        <v>0.72286300000000003</v>
+        <v>1.29687579949748</v>
       </c>
       <c r="D28" s="18">
-        <v>22.565100000000001</v>
+        <v>22.668882565291899</v>
       </c>
       <c r="E28" s="18">
-        <v>103.76900000000001</v>
+        <v>107.073492511008</v>
       </c>
       <c r="F28" s="18">
-        <v>0.13389499999999999</v>
+        <v>0.1381589729046</v>
       </c>
       <c r="G28" s="19">
-        <v>41.076500000000003</v>
+        <v>42.384603382239398</v>
       </c>
       <c r="H28" s="20">
         <v>6719490</v>
@@ -2226,22 +2226,22 @@
         <v>64</v>
       </c>
       <c r="C29" s="18">
-        <v>0.103612</v>
+        <v>0.11337395687545</v>
       </c>
       <c r="D29" s="18">
-        <v>9.8000000000000007</v>
+        <v>11.831361822689001</v>
       </c>
       <c r="E29" s="18">
-        <v>34.142800000000001</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>13</v>
+        <v>47.226734159649197</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.26757941903743998</v>
+      </c>
+      <c r="G29" s="19">
+        <v>15.9678335201507</v>
+      </c>
+      <c r="H29" s="20">
+        <v>33317</v>
       </c>
       <c r="I29" s="18">
         <v>66.989999999999995</v>
@@ -2258,19 +2258,19 @@
         <v>66</v>
       </c>
       <c r="C30" s="18">
-        <v>21.638500000000001</v>
+        <v>24.903145871409802</v>
       </c>
       <c r="D30" s="18">
-        <v>63.999899999999997</v>
+        <v>61.7299551453346</v>
       </c>
       <c r="E30" s="18">
-        <v>147.01499999999999</v>
+        <v>143.99677847130101</v>
       </c>
       <c r="F30" s="18">
-        <v>36.127600000000001</v>
+        <v>35.385900720446799</v>
       </c>
       <c r="G30" s="19">
-        <v>87.385000000000005</v>
+        <v>85.591142030380794</v>
       </c>
       <c r="H30" s="20">
         <v>101657</v>
@@ -2290,19 +2290,19 @@
         <v>68</v>
       </c>
       <c r="C31" s="18">
-        <v>6.0974E-2</v>
+        <v>0.13452390859159</v>
       </c>
       <c r="D31" s="18">
-        <v>21.767600000000002</v>
+        <v>21.358010073333698</v>
       </c>
       <c r="E31" s="18">
-        <v>76.491500000000002</v>
+        <v>75.251475883028803</v>
       </c>
       <c r="F31" s="18">
-        <v>9.0227600000000005E-2</v>
+        <v>8.8764901798420004E-2</v>
       </c>
       <c r="G31" s="19">
-        <v>42.303899999999999</v>
+        <v>41.618078277663301</v>
       </c>
       <c r="H31" s="20">
         <v>37065</v>
@@ -2322,22 +2322,22 @@
         <v>70</v>
       </c>
       <c r="C32" s="18">
-        <v>20.2851</v>
+        <v>33.133706055150199</v>
       </c>
       <c r="D32" s="18">
-        <v>58.769799999999996</v>
+        <v>74.756313146135994</v>
       </c>
       <c r="E32" s="18">
-        <v>198.15199999999999</v>
+        <v>185.55934541831101</v>
       </c>
       <c r="F32" s="18">
-        <v>20.587499999999999</v>
+        <v>19.2791170045606</v>
       </c>
       <c r="G32" s="19">
-        <v>91.9756</v>
+        <v>86.130379795347395</v>
       </c>
       <c r="H32" s="20">
-        <v>14037</v>
+        <v>5461</v>
       </c>
       <c r="I32" s="18">
         <v>75.64</v>
@@ -2354,19 +2354,19 @@
         <v>72</v>
       </c>
       <c r="C33" s="18">
-        <v>0.67173099999999997</v>
-      </c>
-      <c r="D33" s="18">
-        <v>2.0040499999999999</v>
+        <v>0.71959777991385998</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="E33" s="18">
-        <v>48.796399999999998</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>13</v>
+        <v>51.478915983055202</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0.56941550437072996</v>
+      </c>
+      <c r="G33" s="19">
+        <v>2.5905276792250902</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>13</v>
@@ -2382,31 +2382,31 @@
       <c r="A34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="14">
-        <v>2.3414899999999999E-3</v>
-      </c>
-      <c r="D34" s="14">
-        <v>7.97743</v>
-      </c>
-      <c r="E34" s="14">
-        <v>20.086300000000001</v>
-      </c>
-      <c r="F34" s="14" t="s">
+      <c r="C34" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="15">
-        <v>5.9495899999999997</v>
-      </c>
-      <c r="H34" s="16">
+      <c r="D34" s="27">
+        <v>5.6</v>
+      </c>
+      <c r="E34" s="27">
+        <v>21.2675922067187</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="28">
+        <v>6.2994931116672399</v>
+      </c>
+      <c r="H34" s="29">
         <v>800</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="28">
         <v>4.9471340000000001</v>
       </c>
     </row>
@@ -2418,22 +2418,22 @@
         <v>76</v>
       </c>
       <c r="C35" s="18">
-        <v>7.4681499999999998E-2</v>
+        <v>6.4765268318620006E-2</v>
       </c>
       <c r="D35" s="18">
-        <v>30.8703</v>
+        <v>25.9</v>
       </c>
       <c r="E35" s="18">
-        <v>77.111999999999995</v>
+        <v>76.364935650929496</v>
       </c>
       <c r="F35" s="18">
-        <v>0.321961</v>
+        <v>0.31884183816869999</v>
       </c>
       <c r="G35" s="19">
-        <v>37.934800000000003</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>13</v>
+        <v>37.567283638106503</v>
+      </c>
+      <c r="H35" s="20">
+        <v>90000</v>
       </c>
       <c r="I35" s="18">
         <v>34</v>
@@ -2450,19 +2450,19 @@
         <v>78</v>
       </c>
       <c r="C36" s="18">
-        <v>1.5293600000000001</v>
+        <v>1.8403968409574201</v>
       </c>
       <c r="D36" s="18">
-        <v>25</v>
+        <v>18.277257123404901</v>
       </c>
       <c r="E36" s="18">
-        <v>82.208200000000005</v>
+        <v>79.644526420016106</v>
       </c>
       <c r="F36" s="18">
-        <v>0.131519</v>
+        <v>0.12741726057934</v>
       </c>
       <c r="G36" s="19">
-        <v>9.7916100000000004</v>
+        <v>9.48625747355897</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>13</v>
@@ -2482,19 +2482,19 @@
         <v>80</v>
       </c>
       <c r="C37" s="18">
-        <v>2.75667E-2</v>
+        <v>7.7910827774169994E-2</v>
       </c>
       <c r="D37" s="18">
-        <v>23.706499999999998</v>
+        <v>6.0178150919894096</v>
       </c>
       <c r="E37" s="18">
-        <v>57.365600000000001</v>
+        <v>59.129329429175201</v>
       </c>
       <c r="F37" s="18">
-        <v>0.172787</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>13</v>
+        <v>0.19956189981252001</v>
+      </c>
+      <c r="G37" s="19">
+        <v>39.515535606350603</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>13</v>
@@ -2514,22 +2514,22 @@
         <v>81</v>
       </c>
       <c r="C38" s="23">
-        <v>0.48509359243179001</v>
+        <v>0.68747332524490001</v>
       </c>
       <c r="D38" s="23">
-        <v>20.662949917864299</v>
+        <v>17.1535319751946</v>
       </c>
       <c r="E38" s="23">
-        <v>61.211285627232698</v>
+        <v>62.399049162448101</v>
       </c>
       <c r="F38" s="23">
-        <v>0.42796528588651001</v>
+        <v>0.63870053211643996</v>
       </c>
       <c r="G38" s="24">
-        <v>28.1278900423059</v>
+        <v>24.2433152275519</v>
       </c>
       <c r="H38" s="25">
-        <v>4487866.8187347297</v>
+        <v>2362889.1878163698</v>
       </c>
       <c r="I38" s="23">
         <v>59.801749855731799</v>
@@ -2546,19 +2546,19 @@
         <v>83</v>
       </c>
       <c r="C39" s="27">
-        <v>7.2553900000000002</v>
+        <v>8.7233916416461508</v>
       </c>
       <c r="D39" s="27">
-        <v>47.691099999999999</v>
+        <v>58.977574553554199</v>
       </c>
       <c r="E39" s="27">
-        <v>109.35599999999999</v>
+        <v>106.36960908520901</v>
       </c>
       <c r="F39" s="27">
-        <v>10.766299999999999</v>
+        <v>10.854984319535699</v>
       </c>
       <c r="G39" s="28">
-        <v>95.986800000000002</v>
+        <v>90.551194875548205</v>
       </c>
       <c r="H39" s="29">
         <v>722554</v>
@@ -2578,22 +2578,22 @@
         <v>85</v>
       </c>
       <c r="C40" s="18">
-        <v>6.6851500000000001</v>
+        <v>8.6866387753259602</v>
       </c>
       <c r="D40" s="18">
-        <v>57.282899999999998</v>
+        <v>57.282866399019497</v>
       </c>
       <c r="E40" s="18">
-        <v>94.971699999999998</v>
+        <v>90.268378779354293</v>
       </c>
       <c r="F40" s="18">
-        <v>8.7265700000000006</v>
+        <v>8.29440090190114</v>
       </c>
       <c r="G40" s="19">
-        <v>59.342500000000001</v>
+        <v>56.403693055368997</v>
       </c>
       <c r="H40" s="20">
-        <v>1545030</v>
+        <v>1545034.17</v>
       </c>
       <c r="I40" s="18">
         <v>84.91</v>
@@ -2610,19 +2610,19 @@
         <v>87</v>
       </c>
       <c r="C41" s="27">
-        <v>4.8323</v>
-      </c>
-      <c r="D41" s="27">
-        <v>21.758900000000001</v>
+        <v>4.9895235035111503</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="E41" s="27">
-        <v>91.479299999999995</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>13</v>
+        <v>56.598419750199703</v>
+      </c>
+      <c r="F41" s="27">
+        <v>23.991153718750599</v>
+      </c>
+      <c r="G41" s="28">
+        <v>22.118747686132401</v>
       </c>
       <c r="H41" s="29" t="s">
         <v>13</v>
@@ -2642,19 +2642,19 @@
         <v>89</v>
       </c>
       <c r="C42" s="27">
-        <v>0.30027399999999999</v>
+        <v>0.41028283440819002</v>
       </c>
       <c r="D42" s="27">
-        <v>20.800999999999998</v>
+        <v>42.3206827378459</v>
       </c>
       <c r="E42" s="27">
-        <v>104.09</v>
+        <v>107.458105299271</v>
       </c>
       <c r="F42" s="27">
-        <v>1.3668199999999999</v>
+        <v>1.41104344858672</v>
       </c>
       <c r="G42" s="28">
-        <v>55.530500000000004</v>
+        <v>57.327284157662397</v>
       </c>
       <c r="H42" s="29" t="s">
         <v>13</v>
@@ -2674,22 +2674,22 @@
         <v>91</v>
       </c>
       <c r="C43" s="18">
-        <v>4.3092899999999998</v>
+        <v>5.6960230351422503</v>
       </c>
       <c r="D43" s="18">
-        <v>74.376300000000001</v>
+        <v>84.120363046760204</v>
       </c>
       <c r="E43" s="18">
-        <v>127.953</v>
+        <v>127.952998386231</v>
       </c>
       <c r="F43" s="18">
-        <v>5.6332500000000003</v>
+        <v>5.63324745778029</v>
       </c>
       <c r="G43" s="19">
-        <v>64.919300000000007</v>
+        <v>64.919263992925593</v>
       </c>
       <c r="H43" s="20">
-        <v>1970050</v>
+        <v>1970047</v>
       </c>
       <c r="I43" s="18">
         <v>98</v>
@@ -2706,22 +2706,22 @@
         <v>93</v>
       </c>
       <c r="C44" s="18">
-        <v>8.7711000000000006</v>
+        <v>10.974793620936801</v>
       </c>
       <c r="D44" s="18">
-        <v>66.7</v>
+        <v>66.6999983024144</v>
       </c>
       <c r="E44" s="18">
-        <v>126.30500000000001</v>
+        <v>122.58829008854801</v>
       </c>
       <c r="F44" s="18">
-        <v>12.4345</v>
+        <v>12.068595772340201</v>
       </c>
       <c r="G44" s="19">
-        <v>77.791200000000003</v>
+        <v>75.501924839870597</v>
       </c>
       <c r="H44" s="20">
-        <v>453224</v>
+        <v>460444</v>
       </c>
       <c r="I44" s="18">
         <v>90</v>
@@ -2738,22 +2738,22 @@
         <v>94</v>
       </c>
       <c r="C45" s="23">
-        <v>6.31499730829551</v>
+        <v>8.0127828772784007</v>
       </c>
       <c r="D45" s="23">
-        <v>56.951169799869703</v>
+        <v>62.726822653020101</v>
       </c>
       <c r="E45" s="23">
-        <v>105.597438664915</v>
+        <v>101.34253972203901</v>
       </c>
       <c r="F45" s="23">
-        <v>8.6630086686973193</v>
+        <v>8.9260670067115306</v>
       </c>
       <c r="G45" s="24">
-        <v>69.155182289599097</v>
+        <v>64.959186391686998</v>
       </c>
       <c r="H45" s="25">
-        <v>1378007.7910981399</v>
+        <v>1378451.80451008</v>
       </c>
       <c r="I45" s="23">
         <v>86.814005211101502</v>
@@ -2770,22 +2770,22 @@
         <v>96</v>
       </c>
       <c r="C46" s="18">
-        <v>0.23538400000000001</v>
+        <v>0.23713286661847999</v>
       </c>
       <c r="D46" s="18">
-        <v>20</v>
+        <v>22.415938431096301</v>
       </c>
       <c r="E46" s="18">
-        <v>87.701999999999998</v>
+        <v>84.210521605240601</v>
       </c>
       <c r="F46" s="18">
-        <v>0.30435200000000001</v>
+        <v>0.29223517067406002</v>
       </c>
       <c r="G46" s="19">
-        <v>21.457999999999998</v>
+        <v>20.603779651898702</v>
       </c>
       <c r="H46" s="20">
-        <v>76206.100000000006</v>
+        <v>76206.080000000002</v>
       </c>
       <c r="I46" s="18">
         <v>45</v>
@@ -2802,19 +2802,19 @@
         <v>98</v>
       </c>
       <c r="C47" s="18">
-        <v>6.9959400000000005E-2</v>
+        <v>6.4950252817659995E-2</v>
       </c>
       <c r="D47" s="18">
-        <v>16</v>
+        <v>9.2718060095318595</v>
       </c>
       <c r="E47" s="18">
-        <v>100.212</v>
+        <v>97.197684629827805</v>
       </c>
       <c r="F47" s="18">
-        <v>0.37050100000000002</v>
+        <v>0.35935613438165998</v>
       </c>
       <c r="G47" s="19">
-        <v>31.6966</v>
+        <v>30.743074563283599</v>
       </c>
       <c r="H47" s="20">
         <v>44190</v>
@@ -2834,22 +2834,22 @@
         <v>100</v>
       </c>
       <c r="C48" s="27">
-        <v>2.8793600000000001</v>
+        <v>4.2631813812989199</v>
       </c>
       <c r="D48" s="27">
-        <v>61.943399999999997</v>
+        <v>61.943397759308802</v>
       </c>
       <c r="E48" s="27">
-        <v>108.318</v>
+        <v>103.232240958009</v>
       </c>
       <c r="F48" s="27">
-        <v>10.457800000000001</v>
+        <v>9.9667261667504299</v>
       </c>
       <c r="G48" s="28">
-        <v>76.538700000000006</v>
+        <v>72.944734242587003</v>
       </c>
       <c r="H48" s="29">
-        <v>13000</v>
+        <v>15245</v>
       </c>
       <c r="I48" s="27">
         <v>60.84</v>
@@ -2866,19 +2866,19 @@
         <v>102</v>
       </c>
       <c r="C49" s="18">
-        <v>0.70172900000000005</v>
+        <v>0.97483234054868995</v>
       </c>
       <c r="D49" s="18">
-        <v>36.289000000000001</v>
+        <v>36.288954565520498</v>
       </c>
       <c r="E49" s="18">
-        <v>145.34100000000001</v>
+        <v>142.944947310744</v>
       </c>
       <c r="F49" s="18">
-        <v>1.05661</v>
+        <v>1.0391948370231701</v>
       </c>
       <c r="G49" s="19">
-        <v>66.187600000000003</v>
+        <v>65.0965706119093</v>
       </c>
       <c r="H49" s="20">
         <v>88288</v>
@@ -2898,19 +2898,19 @@
         <v>104</v>
       </c>
       <c r="C50" s="18">
-        <v>0.19442200000000001</v>
+        <v>0.19425057158230999</v>
       </c>
       <c r="D50" s="18">
-        <v>19.836500000000001</v>
+        <v>28.804871988147202</v>
       </c>
       <c r="E50" s="18">
-        <v>133.97200000000001</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>13</v>
+        <v>103.022459388318</v>
+      </c>
+      <c r="F50" s="18">
+        <v>2.39150156005618</v>
+      </c>
+      <c r="G50" s="19">
+        <v>38.928264519204603</v>
       </c>
       <c r="H50" s="20" t="s">
         <v>13</v>
@@ -2930,19 +2930,19 @@
         <v>106</v>
       </c>
       <c r="C51" s="14">
-        <v>0.19756000000000001</v>
+        <v>0.24353642319322</v>
       </c>
       <c r="D51" s="14">
-        <v>39</v>
+        <v>45.009630731982199</v>
       </c>
       <c r="E51" s="14">
-        <v>134.31899999999999</v>
+        <v>129.61328951671999</v>
       </c>
       <c r="F51" s="14">
-        <v>0.94855800000000001</v>
+        <v>0.91532372806671003</v>
       </c>
       <c r="G51" s="15">
-        <v>99.899699999999996</v>
+        <v>96.399541403876398</v>
       </c>
       <c r="H51" s="16">
         <v>411290</v>
@@ -2962,19 +2962,19 @@
         <v>108</v>
       </c>
       <c r="C52" s="18">
-        <v>9.3391199999999994E-3</v>
+        <v>7.5728018882299996E-3</v>
       </c>
       <c r="D52" s="18">
-        <v>18</v>
+        <v>23.366260252680998</v>
       </c>
       <c r="E52" s="18">
-        <v>100.797</v>
+        <v>99.964760344718101</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="19">
-        <v>23.165500000000002</v>
+        <v>22.974337175320301</v>
       </c>
       <c r="H52" s="20">
         <v>42000</v>
@@ -2994,19 +2994,19 @@
         <v>110</v>
       </c>
       <c r="C53" s="18">
-        <v>6.4237199999999994E-2</v>
+        <v>0.11821445083608</v>
       </c>
       <c r="D53" s="18">
-        <v>3.9305099999999999</v>
+        <v>22.9200902858977</v>
       </c>
       <c r="E53" s="18">
-        <v>82.792599999999993</v>
+        <v>80.711317583341099</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="19">
-        <v>36.709499999999998</v>
+        <v>35.786640249769597</v>
       </c>
       <c r="H53" s="20">
         <v>5756</v>
@@ -3026,19 +3026,19 @@
         <v>112</v>
       </c>
       <c r="C54" s="18">
-        <v>0.19139900000000001</v>
+        <v>0.25552403655645001</v>
       </c>
       <c r="D54" s="18">
-        <v>7.9844799999999996</v>
+        <v>23.4825904734193</v>
       </c>
       <c r="E54" s="18">
-        <v>56.569000000000003</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>13</v>
+        <v>38.854317171983404</v>
+      </c>
+      <c r="F54" s="18">
+        <v>0.12035410585023</v>
+      </c>
+      <c r="G54" s="19">
+        <v>8.0436660743238804</v>
       </c>
       <c r="H54" s="20" t="s">
         <v>13</v>
@@ -3058,19 +3058,19 @@
         <v>114</v>
       </c>
       <c r="C55" s="18">
-        <v>0.63397400000000004</v>
+        <v>1.1487256903021299</v>
       </c>
       <c r="D55" s="18">
-        <v>13</v>
+        <v>22.311090041643599</v>
       </c>
       <c r="E55" s="18">
-        <v>116.621</v>
+        <v>111.46501380046401</v>
       </c>
       <c r="F55" s="18">
-        <v>1.23227</v>
+        <v>1.1777896930602501</v>
       </c>
       <c r="G55" s="19">
-        <v>35.072400000000002</v>
+        <v>33.521674858261299</v>
       </c>
       <c r="H55" s="20">
         <v>33850</v>
@@ -3090,19 +3090,19 @@
         <v>116</v>
       </c>
       <c r="C56" s="18">
-        <v>4.0041899999999998E-2</v>
+        <v>4.931444902261E-2</v>
       </c>
       <c r="D56" s="18">
-        <v>10.224299999999999</v>
+        <v>16.611902175719599</v>
       </c>
       <c r="E56" s="18">
-        <v>40.638500000000001</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>13</v>
+        <v>51.6947354847483</v>
+      </c>
+      <c r="F56" s="18">
+        <v>0.24740446060858001</v>
+      </c>
+      <c r="G56" s="19">
+        <v>5.00354193610114</v>
       </c>
       <c r="H56" s="20" t="s">
         <v>13</v>
@@ -3118,31 +3118,31 @@
       <c r="A57" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="27">
-        <v>3.7761400000000001E-2</v>
-      </c>
-      <c r="D57" s="27">
-        <v>42</v>
-      </c>
-      <c r="E57" s="27">
-        <v>91.8536</v>
-      </c>
-      <c r="F57" s="27">
-        <v>5.3320100000000002E-2</v>
-      </c>
-      <c r="G57" s="28">
-        <v>35.9039</v>
-      </c>
-      <c r="H57" s="29">
+      <c r="C57" s="18">
+        <v>3.1351132278309997E-2</v>
+      </c>
+      <c r="D57" s="18">
+        <v>45.031373415943598</v>
+      </c>
+      <c r="E57" s="18">
+        <v>90.795954965913893</v>
+      </c>
+      <c r="F57" s="18">
+        <v>5.2706164505209999E-2</v>
+      </c>
+      <c r="G57" s="19">
+        <v>35.490521281743199</v>
+      </c>
+      <c r="H57" s="20">
         <v>395302</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="18">
         <v>67.28</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="19">
         <v>31.543589999999998</v>
       </c>
     </row>
@@ -3154,19 +3154,19 @@
         <v>120</v>
       </c>
       <c r="C58" s="18">
-        <v>0.81882999999999995</v>
+        <v>1.07910504425619</v>
       </c>
       <c r="D58" s="18">
-        <v>46</v>
+        <v>36.2366272683239</v>
       </c>
       <c r="E58" s="18">
-        <v>109.721</v>
+        <v>111.748257788167</v>
       </c>
       <c r="F58" s="18">
-        <v>1.2738499999999999</v>
+        <v>1.2973866713131099</v>
       </c>
       <c r="G58" s="19">
-        <v>54.245699999999999</v>
+        <v>55.2477407196561</v>
       </c>
       <c r="H58" s="20" t="s">
         <v>13</v>
@@ -3185,20 +3185,20 @@
       <c r="B59" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>13</v>
+      <c r="C59" s="18">
+        <v>2.18606577386E-3</v>
       </c>
       <c r="D59" s="18">
-        <v>9</v>
+        <v>16.8</v>
       </c>
       <c r="E59" s="18">
-        <v>86.133600000000001</v>
+        <v>83.633004209857603</v>
       </c>
       <c r="F59" s="18">
-        <v>4.3951200000000003E-2</v>
+        <v>5.91537435621E-3</v>
       </c>
       <c r="G59" s="19">
-        <v>14.7454</v>
+        <v>14.31730614846</v>
       </c>
       <c r="H59" s="20">
         <v>26301</v>
@@ -3218,19 +3218,19 @@
         <v>124</v>
       </c>
       <c r="C60" s="14">
-        <v>0.33154600000000001</v>
+        <v>0.62428783618278005</v>
       </c>
       <c r="D60" s="14">
-        <v>12.360200000000001</v>
+        <v>20.727327163366802</v>
       </c>
       <c r="E60" s="14">
-        <v>77.194999999999993</v>
+        <v>75.689819866181296</v>
       </c>
       <c r="F60" s="14">
-        <v>0.53950799999999999</v>
+        <v>0.52898826581378</v>
       </c>
       <c r="G60" s="15">
-        <v>41.104500000000002</v>
+        <v>24.8729906513258</v>
       </c>
       <c r="H60" s="16">
         <v>36538</v>
@@ -3248,22 +3248,22 @@
         <v>125</v>
       </c>
       <c r="C61" s="23">
-        <v>0.18112029529014001</v>
+        <v>0.24312195355061</v>
       </c>
       <c r="D61" s="23">
-        <v>33.246303212165202</v>
+        <v>36.340842429772501</v>
       </c>
       <c r="E61" s="23">
-        <v>97.7646533982726</v>
+        <v>96.3343561676473</v>
       </c>
       <c r="F61" s="23">
-        <v>0.39244604874869998</v>
+        <v>0.38406859843911001</v>
       </c>
       <c r="G61" s="24">
-        <v>42.947852152094597</v>
+        <v>39.169682288224699</v>
       </c>
       <c r="H61" s="25">
-        <v>286497.923517188</v>
+        <v>286501.66144237999</v>
       </c>
       <c r="I61" s="23">
         <v>59.001566578517</v>
@@ -3278,22 +3278,22 @@
         <v>126</v>
       </c>
       <c r="C62" s="33">
-        <v>1.3345380037666099</v>
+        <v>1.7873075262049101</v>
       </c>
       <c r="D62" s="33">
-        <v>30.3182176918274</v>
+        <v>33.158420059916601</v>
       </c>
       <c r="E62" s="33">
-        <v>83.037479179638893</v>
+        <v>82.049574607915801</v>
       </c>
       <c r="F62" s="33">
-        <v>2.3550481510218102</v>
+        <v>2.1691774270305699</v>
       </c>
       <c r="G62" s="34">
-        <v>43.798718646985201</v>
+        <v>38.555907342562698</v>
       </c>
       <c r="H62" s="35">
-        <v>790516.80471383396</v>
+        <v>789378.94268744998</v>
       </c>
       <c r="I62" s="33">
         <v>61.864831693546698</v>
@@ -3308,22 +3308,22 @@
         <v>127</v>
       </c>
       <c r="C63" s="37">
-        <v>16.478028745220499</v>
+        <v>18.664009607456901</v>
       </c>
       <c r="D63" s="37">
-        <v>55.3696963197511</v>
+        <v>57.797495035510003</v>
       </c>
       <c r="E63" s="37">
-        <v>111.748464681493</v>
+        <v>110.436824708592</v>
       </c>
       <c r="F63" s="37">
-        <v>14.1510898301779</v>
+        <v>13.779500164586</v>
       </c>
       <c r="G63" s="38">
-        <v>83.050114410470201</v>
+        <v>81.317768584199996</v>
       </c>
       <c r="H63" s="39">
-        <v>22384732.445953101</v>
+        <v>21964127.423882201</v>
       </c>
       <c r="I63" s="37">
         <v>93.732414965055398</v>
@@ -3338,22 +3338,22 @@
         <v>128</v>
       </c>
       <c r="C64" s="33">
-        <v>12.7892429192152</v>
+        <v>14.8896184389026</v>
       </c>
       <c r="D64" s="33">
-        <v>67.912171532378196</v>
+        <v>68.702529453087706</v>
       </c>
       <c r="E64" s="33">
-        <v>101.54801495708701</v>
+        <v>102.51202926656801</v>
       </c>
       <c r="F64" s="33">
-        <v>15.1524654305342</v>
+        <v>14.7823695383691</v>
       </c>
       <c r="G64" s="34">
-        <v>74.7389366047274</v>
+        <v>72.696489864425502</v>
       </c>
       <c r="H64" s="35">
-        <v>2340233.6180920899</v>
+        <v>2205525.0458183899</v>
       </c>
       <c r="I64" s="33">
         <v>89.098455592903505</v>
@@ -3368,22 +3368,22 @@
         <v>129</v>
       </c>
       <c r="C65" s="42">
-        <v>11.859187355612701</v>
+        <v>14.1649961559426</v>
       </c>
       <c r="D65" s="42">
-        <v>42.890145361626701</v>
+        <v>45.966262891867899</v>
       </c>
       <c r="E65" s="42">
-        <v>106.921581690143</v>
+        <v>106.997512678563</v>
       </c>
       <c r="F65" s="42">
-        <v>7.1683472827344401</v>
+        <v>7.0557011530696796</v>
       </c>
       <c r="G65" s="43">
-        <v>69.724043109468894</v>
+        <v>69.018883892056493</v>
       </c>
       <c r="H65" s="44">
-        <v>24740022.874962501</v>
+        <v>24424828.986368898</v>
       </c>
       <c r="I65" s="42">
         <v>93.729229347077194</v>
@@ -3398,22 +3398,22 @@
         <v>130</v>
       </c>
       <c r="C66" s="46">
-        <v>13.8423164929245</v>
+        <v>15.780828840587199</v>
       </c>
       <c r="D66" s="46">
-        <v>51.051723020906898</v>
+        <v>53.583602489014197</v>
       </c>
       <c r="E66" s="46">
-        <v>106.816249299384</v>
+        <v>105.560223325707</v>
       </c>
       <c r="F66" s="46">
-        <v>12.510521014237201</v>
+        <v>11.9306369564354</v>
       </c>
       <c r="G66" s="47">
-        <v>77.051559272951295</v>
+        <v>74.013265285141699</v>
       </c>
       <c r="H66" s="48">
-        <v>18637014.203163002</v>
+        <v>18139312.299753301</v>
       </c>
       <c r="I66" s="46">
         <v>87.566230620953206</v>
@@ -3428,22 +3428,22 @@
         <v>131</v>
       </c>
       <c r="C67" s="50">
-        <v>1.61542972380349</v>
+        <v>2.1122881791660699</v>
       </c>
       <c r="D67" s="50">
-        <v>25.9431771827931</v>
+        <v>25.495885064820499</v>
       </c>
       <c r="E67" s="50">
-        <v>66.066247468235105</v>
+        <v>65.304258885605094</v>
       </c>
       <c r="F67" s="50">
-        <v>3.5665366072553399</v>
+        <v>2.8841979224024401</v>
       </c>
       <c r="G67" s="51">
-        <v>41.476623154704598</v>
+        <v>33.5008258722536</v>
       </c>
       <c r="H67" s="52">
-        <v>1531201.3464831</v>
+        <v>1278113.76232561</v>
       </c>
       <c r="I67" s="50">
         <v>62.926791416041297</v>
@@ -3458,22 +3458,22 @@
         <v>132</v>
       </c>
       <c r="C68" s="42">
-        <v>1.7089945800686399</v>
+        <v>2.2525279546474799</v>
       </c>
       <c r="D68" s="42">
-        <v>38.136124728492902</v>
+        <v>41.611763396134002</v>
       </c>
       <c r="E68" s="42">
-        <v>94.892464451885303</v>
+        <v>93.042732187767299</v>
       </c>
       <c r="F68" s="42">
-        <v>2.5271570946290001</v>
+        <v>2.5067325230682602</v>
       </c>
       <c r="G68" s="43">
-        <v>46.150222457890898</v>
+        <v>42.137702723555797</v>
       </c>
       <c r="H68" s="44">
-        <v>657374.08305440401</v>
+        <v>613525.99671701901</v>
       </c>
       <c r="I68" s="42">
         <v>63.970524436671802</v>
@@ -3488,28 +3488,28 @@
         <v>133</v>
       </c>
       <c r="C69" s="42">
-        <v>0.69268508462268996</v>
+        <v>0.68664832808130005</v>
       </c>
       <c r="D69" s="42">
-        <v>21.484289884427401</v>
+        <v>15.617065804553</v>
       </c>
       <c r="E69" s="42">
-        <v>76.945323102631093</v>
+        <v>65.691298206194503</v>
       </c>
       <c r="F69" s="42">
-        <v>0.14248835237314</v>
+        <v>0.14831722745545001</v>
       </c>
       <c r="G69" s="43">
-        <v>23.404425073974402</v>
+        <v>24.559665893756598</v>
       </c>
       <c r="H69" s="44">
-        <v>3982453.67518936</v>
+        <v>1965077.1417449999</v>
       </c>
       <c r="I69" s="42">
-        <v>54.829900460258401</v>
+        <v>46.808625823296403</v>
       </c>
       <c r="J69" s="43">
-        <v>29.214691443909601</v>
+        <v>26.147645740404101</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3518,22 +3518,22 @@
         <v>134</v>
       </c>
       <c r="C70" s="42">
-        <v>9.1736025595370002E-2</v>
+        <v>0.57790382336266</v>
       </c>
       <c r="D70" s="42">
-        <v>12.3236820900339</v>
+        <v>21.104323475318001</v>
       </c>
       <c r="E70" s="42">
-        <v>54.188421665619899</v>
+        <v>52.877308311591797</v>
       </c>
       <c r="F70" s="42">
-        <v>1.03284827417166</v>
+        <v>0.94676102142861995</v>
       </c>
       <c r="G70" s="43">
-        <v>19.266498016686601</v>
+        <v>19.178829872742899</v>
       </c>
       <c r="H70" s="44">
-        <v>30440.463403034999</v>
+        <v>29837.3061086977</v>
       </c>
       <c r="I70" s="42">
         <v>45.890517783690299</v>
@@ -3548,22 +3548,22 @@
         <v>135</v>
       </c>
       <c r="C71" s="42">
-        <v>0.18112029529014001</v>
+        <v>0.24312195355061</v>
       </c>
       <c r="D71" s="42">
-        <v>33.246303212165202</v>
+        <v>36.340842429772501</v>
       </c>
       <c r="E71" s="42">
-        <v>97.764653398272699</v>
+        <v>96.3343561676473</v>
       </c>
       <c r="F71" s="42">
-        <v>0.39244604874869998</v>
+        <v>0.38406859843911001</v>
       </c>
       <c r="G71" s="43">
-        <v>42.947852152094597</v>
+        <v>39.169682288224699</v>
       </c>
       <c r="H71" s="44">
-        <v>286497.923517188</v>
+        <v>286501.66144237999</v>
       </c>
       <c r="I71" s="42">
         <v>59.0015665785171</v>
@@ -3578,22 +3578,22 @@
         <v>136</v>
       </c>
       <c r="C72" s="42">
-        <v>0.21804670348763999</v>
+        <v>0.39348245081206001</v>
       </c>
       <c r="D72" s="42">
-        <v>20.5734081585612</v>
+        <v>17.0112137271446</v>
       </c>
       <c r="E72" s="42">
-        <v>58.240374146964498</v>
+        <v>59.187258315835997</v>
       </c>
       <c r="F72" s="42">
-        <v>0.23338782418213</v>
+        <v>0.64017883785612995</v>
       </c>
       <c r="G72" s="43">
-        <v>36.142402992885202</v>
+        <v>26.9846583525215</v>
       </c>
       <c r="H72" s="44">
-        <v>5576238.5388952503</v>
+        <v>3309404.60855518</v>
       </c>
       <c r="I72" s="42">
         <v>64.151678946512305</v>
@@ -3608,22 +3608,22 @@
         <v>137</v>
       </c>
       <c r="C73" s="42">
-        <v>0.88669557446004998</v>
+        <v>1.0325927144082501</v>
       </c>
       <c r="D73" s="42">
-        <v>22.7479796871899</v>
+        <v>27.5036470142052</v>
       </c>
       <c r="E73" s="42">
-        <v>76.385521313276897</v>
+        <v>76.325084534400602</v>
       </c>
       <c r="F73" s="42">
-        <v>1.43915595767795</v>
+        <v>1.32070179494408</v>
       </c>
       <c r="G73" s="43">
-        <v>37.565098063162502</v>
+        <v>35.775284018411298</v>
       </c>
       <c r="H73" s="44">
-        <v>112057.106476125</v>
+        <v>268383.508237926</v>
       </c>
       <c r="I73" s="42">
         <v>50.543004529557301</v>
@@ -3638,22 +3638,22 @@
         <v>137</v>
       </c>
       <c r="C74" s="42">
-        <v>5.9304956285944197</v>
+        <v>7.3128049209310797</v>
       </c>
       <c r="D74" s="42">
-        <v>56.6077112465779</v>
+        <v>68.751191103723897</v>
       </c>
       <c r="E74" s="42">
-        <v>116.598851343276</v>
+        <v>112.808228690969</v>
       </c>
       <c r="F74" s="42">
-        <v>8.5926706900070506</v>
+        <v>9.5800657274684404</v>
       </c>
       <c r="G74" s="43">
-        <v>80.014052354691799</v>
+        <v>73.817160018553906</v>
       </c>
       <c r="H74" s="44">
-        <v>1184280.13873857</v>
+        <v>1185234.3228168001</v>
       </c>
       <c r="I74" s="42">
         <v>88.881731899446393</v>
@@ -3668,22 +3668,22 @@
         <v>138</v>
       </c>
       <c r="C75" s="46">
-        <v>0.31521308661795</v>
+        <v>0.48844893632123998</v>
       </c>
       <c r="D75" s="46">
-        <v>12.4873509546353</v>
+        <v>24.009202556557</v>
       </c>
       <c r="E75" s="46">
-        <v>49.284000941844099</v>
+        <v>48.860430351289203</v>
       </c>
       <c r="F75" s="46">
-        <v>0.42958890244505998</v>
+        <v>0.42221121180034998</v>
       </c>
       <c r="G75" s="47">
-        <v>20.553678599444002</v>
+        <v>20.345071902887302</v>
       </c>
       <c r="H75" s="48">
-        <v>58347.621164409204</v>
+        <v>58367.428614472701</v>
       </c>
       <c r="I75" s="46">
         <v>43.847348620812703</v>
@@ -3698,22 +3698,22 @@
         <v>139</v>
       </c>
       <c r="C76" s="50">
-        <v>5.9660611617880299</v>
+        <v>8.0466710064903904</v>
       </c>
       <c r="D76" s="50">
-        <v>52.218320032452397</v>
+        <v>52.929366880189498</v>
       </c>
       <c r="E76" s="50">
-        <v>136.93990578615299</v>
+        <v>141.35704121951201</v>
       </c>
       <c r="F76" s="50">
-        <v>5.6379231830243901</v>
+        <v>5.1954852416965798</v>
       </c>
       <c r="G76" s="51">
-        <v>84.244753387512205</v>
+        <v>83.159702243821499</v>
       </c>
       <c r="H76" s="52">
-        <v>11974701.9087025</v>
+        <v>11017216.514987299</v>
       </c>
       <c r="I76" s="50">
         <v>91.4309081951792</v>
@@ -3728,28 +3728,28 @@
         <v>140</v>
       </c>
       <c r="C77" s="42">
-        <v>13.7821179495773</v>
+        <v>16.219628409224701</v>
       </c>
       <c r="D77" s="42">
-        <v>70.522771528266503</v>
+        <v>71.4073296352623</v>
       </c>
       <c r="E77" s="42">
-        <v>104.151540638868</v>
+        <v>107.99503146770201</v>
       </c>
       <c r="F77" s="42">
-        <v>15.5002409443135</v>
+        <v>14.5850994269284</v>
       </c>
       <c r="G77" s="43">
-        <v>79.358077504134599</v>
+        <v>79.414136154187602</v>
       </c>
       <c r="H77" s="44">
-        <v>3205291.4352845</v>
+        <v>3651230.7591722501</v>
       </c>
       <c r="I77" s="42">
-        <v>90.6270108594791</v>
+        <v>90.812847438053296</v>
       </c>
       <c r="J77" s="43">
-        <v>62.260362065215503</v>
+        <v>63.070998122296203</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -3758,22 +3758,22 @@
         <v>140</v>
       </c>
       <c r="C78" s="42">
-        <v>34.429031228912102</v>
+        <v>36.805837658969999</v>
       </c>
       <c r="D78" s="42">
-        <v>82.080206666229898</v>
+        <v>82.754352466755904</v>
       </c>
       <c r="E78" s="42">
-        <v>122.058172950968</v>
+        <v>121.813497802298</v>
       </c>
       <c r="F78" s="42">
-        <v>37.143186718771901</v>
+        <v>36.555790897082197</v>
       </c>
       <c r="G78" s="43">
-        <v>104.78554191848301</v>
+        <v>104.277748133174</v>
       </c>
       <c r="H78" s="44">
-        <v>981336.69814446406</v>
+        <v>981336.32570622803</v>
       </c>
       <c r="I78" s="42">
         <v>99</v>
@@ -3788,22 +3788,22 @@
         <v>141</v>
       </c>
       <c r="C79" s="46">
-        <v>31.3690826808918</v>
+        <v>33.323204126844502</v>
       </c>
       <c r="D79" s="46">
-        <v>83.876376804163598</v>
+        <v>84.776925988439203</v>
       </c>
       <c r="E79" s="46">
-        <v>123.66473788721299</v>
+        <v>116.859199315973</v>
       </c>
       <c r="F79" s="46">
-        <v>33.787482036854698</v>
+        <v>33.349797204631102</v>
       </c>
       <c r="G79" s="47">
-        <v>119.724839503724</v>
+        <v>118.646921037369</v>
       </c>
       <c r="H79" s="48">
-        <v>5601938.8031815505</v>
+        <v>5355758.3927999102</v>
       </c>
       <c r="I79" s="46">
         <v>95.819005511608395</v>
@@ -3818,28 +3818,28 @@
         <v>142</v>
       </c>
       <c r="C80" s="50">
-        <v>1.15608514695584</v>
+        <v>4.8008312292792699</v>
       </c>
       <c r="D80" s="50">
-        <v>36.913587951349697</v>
+        <v>38.075655334048797</v>
       </c>
       <c r="E80" s="50">
-        <v>87.754418322827604</v>
+        <v>71.730693583676796</v>
       </c>
       <c r="F80" s="50">
-        <v>1.65162710356395</v>
+        <v>5.8105239186795501</v>
       </c>
       <c r="G80" s="51">
-        <v>41.8669992465571</v>
+        <v>45.305007073787301</v>
       </c>
       <c r="H80" s="52">
-        <v>382811.62299573899</v>
+        <v>317802.617322476</v>
       </c>
       <c r="I80" s="50">
-        <v>66.681343774697993</v>
+        <v>65.534590596974098</v>
       </c>
       <c r="J80" s="51">
-        <v>34.6446918556613</v>
+        <v>38.195971740035603</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3848,22 +3848,22 @@
         <v>143</v>
       </c>
       <c r="C81" s="42">
-        <v>14.767539230710501</v>
+        <v>15.6439474532086</v>
       </c>
       <c r="D81" s="42">
-        <v>68.568139934121504</v>
+        <v>74.942888466919399</v>
       </c>
       <c r="E81" s="42">
-        <v>126.301977116115</v>
+        <v>124.20758171262899</v>
       </c>
       <c r="F81" s="42">
-        <v>19.563528231341898</v>
+        <v>18.210440574406999</v>
       </c>
       <c r="G81" s="43">
-        <v>85.981679833148903</v>
+        <v>78.302401820901196</v>
       </c>
       <c r="H81" s="44">
-        <v>4027740.13624922</v>
+        <v>4040531.3307824698</v>
       </c>
       <c r="I81" s="42">
         <v>75.350604807322497</v>
@@ -3878,28 +3878,28 @@
         <v>144</v>
       </c>
       <c r="C82" s="42">
-        <v>1.39066981869073</v>
+        <v>1.5603115890846999</v>
       </c>
       <c r="D82" s="42">
-        <v>28.2597797566346</v>
+        <v>32.701272931389802</v>
       </c>
       <c r="E82" s="42">
-        <v>81.565306111520897</v>
+        <v>83.100261631604994</v>
       </c>
       <c r="F82" s="42">
-        <v>2.65957947794162</v>
+        <v>1.7976842216650599</v>
       </c>
       <c r="G82" s="43">
-        <v>44.551353973722897</v>
+        <v>37.898032365186602</v>
       </c>
       <c r="H82" s="44">
-        <v>976598.00083528203</v>
+        <v>842485.11417851294</v>
       </c>
       <c r="I82" s="42">
-        <v>60.369436779996498</v>
+        <v>61.540252788375597</v>
       </c>
       <c r="J82" s="43">
-        <v>26.5752297940608</v>
+        <v>27.651120247470399</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3908,22 +3908,22 @@
         <v>145</v>
       </c>
       <c r="C83" s="46">
-        <v>16.6221927358147</v>
+        <v>18.918549173112702</v>
       </c>
       <c r="D83" s="46">
-        <v>54.257368037479701</v>
+        <v>56.545221399042703</v>
       </c>
       <c r="E83" s="46">
-        <v>110.527295156935</v>
+        <v>109.28133534758901</v>
       </c>
       <c r="F83" s="46">
-        <v>13.7285646684072</v>
+        <v>13.4076933184729</v>
       </c>
       <c r="G83" s="47">
-        <v>82.812284083773093</v>
+        <v>81.570792691837596</v>
       </c>
       <c r="H83" s="48">
-        <v>24414072.4329389</v>
+        <v>23899046.965466399</v>
       </c>
       <c r="I83" s="46">
         <v>94.816052476427998</v>
@@ -3938,28 +3938,28 @@
         <v>146</v>
       </c>
       <c r="C84" s="50">
-        <v>0.10204200615762</v>
+        <v>0.18095968397816001</v>
       </c>
       <c r="D84" s="50">
-        <v>14.6199298754926</v>
+        <v>15.466003842503</v>
       </c>
       <c r="E84" s="50">
-        <v>54.405796925368499</v>
+        <v>55.931347436653603</v>
       </c>
       <c r="F84" s="50">
-        <v>0.31031184161637998</v>
+        <v>0.53894146916551</v>
       </c>
       <c r="G84" s="51">
-        <v>24.265148212981899</v>
+        <v>22.3145792681808</v>
       </c>
       <c r="H84" s="52">
-        <v>34478.686938446197</v>
+        <v>41795.055749531901</v>
       </c>
       <c r="I84" s="50">
-        <v>48.702788374969202</v>
+        <v>48.412335658562903</v>
       </c>
       <c r="J84" s="51">
-        <v>16.164138089210301</v>
+        <v>16.642957614965699</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -3968,19 +3968,19 @@
         <v>147</v>
       </c>
       <c r="C85" s="42">
-        <v>2.3815273423019501</v>
+        <v>2.13592753952181</v>
       </c>
       <c r="D85" s="42">
-        <v>22.828513634014801</v>
+        <v>23.521695339315901</v>
       </c>
       <c r="E85" s="42">
-        <v>57.749406496542299</v>
+        <v>51.927682377304897</v>
       </c>
       <c r="F85" s="42">
-        <v>6.01564162033619</v>
+        <v>4.68676267886394</v>
       </c>
       <c r="G85" s="43">
-        <v>16.536231974763702</v>
+        <v>12.9117281974095</v>
       </c>
       <c r="H85" s="44">
         <v>172282.035441641</v>
@@ -3998,28 +3998,28 @@
         <v>148</v>
       </c>
       <c r="C86" s="42">
-        <v>2.1204942567239802</v>
+        <v>2.90662664787813</v>
       </c>
       <c r="D86" s="42">
-        <v>40.152400573069798</v>
+        <v>43.933769452918597</v>
       </c>
       <c r="E86" s="42">
-        <v>97.745243362520995</v>
+        <v>96.033747655580498</v>
       </c>
       <c r="F86" s="42">
-        <v>2.86250410412097</v>
+        <v>2.8332558781105899</v>
       </c>
       <c r="G86" s="43">
-        <v>47.164280359200397</v>
+        <v>46.158709610333403</v>
       </c>
       <c r="H86" s="44">
-        <v>1159126.30161205</v>
+        <v>1193292.39413724</v>
       </c>
       <c r="I86" s="42">
-        <v>68.941448535436706</v>
+        <v>69.727312395142505</v>
       </c>
       <c r="J86" s="43">
-        <v>34.957386626265198</v>
+        <v>35.106482948232802</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4028,28 +4028,28 @@
         <v>149</v>
       </c>
       <c r="C87" s="42">
-        <v>3.10518227607515</v>
+        <v>3.8598241036448502</v>
       </c>
       <c r="D87" s="42">
-        <v>35.949190561820799</v>
+        <v>35.724347527870499</v>
       </c>
       <c r="E87" s="42">
-        <v>98.587260328485399</v>
+        <v>98.771466848416097</v>
       </c>
       <c r="F87" s="42">
-        <v>3.4694420511961499</v>
+        <v>3.4875502775230598</v>
       </c>
       <c r="G87" s="43">
-        <v>53.593859533653301</v>
+        <v>55.062947110265497</v>
       </c>
       <c r="H87" s="44">
-        <v>22413157.2257495</v>
+        <v>21711039.819803301</v>
       </c>
       <c r="I87" s="42">
-        <v>92.006966488278806</v>
+        <v>92.012892317303198</v>
       </c>
       <c r="J87" s="43">
-        <v>27.396541266847802</v>
+        <v>27.5333473524699</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4058,22 +4058,22 @@
         <v>150</v>
       </c>
       <c r="C88" s="42">
-        <v>2.8477624483851902</v>
+        <v>3.0949187779171998</v>
       </c>
       <c r="D88" s="42">
-        <v>52.354073748482598</v>
+        <v>67.971323563404596</v>
       </c>
       <c r="E88" s="42">
-        <v>153.59671473015999</v>
+        <v>150.931001223181</v>
       </c>
       <c r="F88" s="42">
-        <v>4.19316958054746</v>
+        <v>5.8575544666323598</v>
       </c>
       <c r="G88" s="43">
-        <v>99.823640777197596</v>
+        <v>91.261733363938404</v>
       </c>
       <c r="H88" s="44">
-        <v>332316.811057363</v>
+        <v>1155189.2246872301</v>
       </c>
       <c r="I88" s="42">
         <v>90.849044859066495</v>
@@ -4088,28 +4088,28 @@
         <v>151</v>
       </c>
       <c r="C89" s="42">
-        <v>22.8575071268484</v>
+        <v>26.993204614623501</v>
       </c>
       <c r="D89" s="42">
-        <v>61.652241367556499</v>
+        <v>67.332842283346906</v>
       </c>
       <c r="E89" s="42">
-        <v>120.80104392169299</v>
+        <v>121.227918130539</v>
       </c>
       <c r="F89" s="42">
-        <v>14.2972382975928</v>
+        <v>14.256083081250001</v>
       </c>
       <c r="G89" s="43">
-        <v>90.621782544364194</v>
+        <v>89.885999762905499</v>
       </c>
       <c r="H89" s="44">
-        <v>24212651.886422899</v>
+        <v>24280761.9805163</v>
       </c>
       <c r="I89" s="42">
-        <v>95.042794416424599</v>
+        <v>95.052734296396196</v>
       </c>
       <c r="J89" s="43">
-        <v>64.664785172984097</v>
+        <v>64.608990796111399</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4118,28 +4118,28 @@
         <v>152</v>
       </c>
       <c r="C90" s="46">
-        <v>34.393604266128897</v>
+        <v>35.8780452141662</v>
       </c>
       <c r="D90" s="46">
-        <v>87.486920191208796</v>
+        <v>88.2517496720086</v>
       </c>
       <c r="E90" s="46">
-        <v>128.999598071566</v>
+        <v>120.853762727279</v>
       </c>
       <c r="F90" s="46">
-        <v>36.9945591918978</v>
+        <v>36.035808653144997</v>
       </c>
       <c r="G90" s="47">
-        <v>131.01257382806099</v>
+        <v>128.55355853976599</v>
       </c>
       <c r="H90" s="48">
-        <v>4331021.3227925599</v>
+        <v>4981333.4719099402</v>
       </c>
       <c r="I90" s="46">
-        <v>98.865293058417905</v>
+        <v>98.807184161642098</v>
       </c>
       <c r="J90" s="47">
-        <v>86.035030211751703</v>
+        <v>85.608998063436502</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4148,22 +4148,22 @@
         <v>153</v>
       </c>
       <c r="C91" s="50">
-        <v>0.26785395006947998</v>
+        <v>0.38395856854860999</v>
       </c>
       <c r="D91" s="50">
-        <v>16.817865878992801</v>
+        <v>17.4623700571412</v>
       </c>
       <c r="E91" s="50">
-        <v>59.799509278500402</v>
+        <v>59.681243388499702</v>
       </c>
       <c r="F91" s="50">
-        <v>0.36727382591996</v>
+        <v>0.51733223522498994</v>
       </c>
       <c r="G91" s="51">
-        <v>24.672306321309001</v>
+        <v>22.266267064004101</v>
       </c>
       <c r="H91" s="52">
-        <v>37652.398932892502</v>
+        <v>42722.644958470599</v>
       </c>
       <c r="I91" s="50">
         <v>47.818424507521698</v>
@@ -4178,22 +4178,22 @@
         <v>154</v>
       </c>
       <c r="C92" s="42">
-        <v>3.4457534835241801</v>
+        <v>3.5680457236207301</v>
       </c>
       <c r="D92" s="42">
-        <v>19.837636707119799</v>
+        <v>29.618322187385001</v>
       </c>
       <c r="E92" s="42">
-        <v>92.653068571148196</v>
+        <v>101.54834858823</v>
       </c>
       <c r="F92" s="42">
-        <v>1.32893744693469</v>
+        <v>1.5980223581205599</v>
       </c>
       <c r="G92" s="43">
-        <v>49.077962129445197</v>
+        <v>54.589883757261703</v>
       </c>
       <c r="H92" s="44">
-        <v>1174906.68071475</v>
+        <v>1074965.73659766</v>
       </c>
       <c r="I92" s="42">
         <v>73.597656928058996</v>
@@ -4208,22 +4208,22 @@
         <v>155</v>
       </c>
       <c r="C93" s="42">
-        <v>6.4338225760736103</v>
+        <v>7.7405292966484804</v>
       </c>
       <c r="D93" s="42">
-        <v>29.4148651088374</v>
+        <v>37.986574733570897</v>
       </c>
       <c r="E93" s="42">
-        <v>102.32894894903301</v>
+        <v>100.678096187069</v>
       </c>
       <c r="F93" s="42">
-        <v>18.914023087897601</v>
+        <v>18.4750203300678</v>
       </c>
       <c r="G93" s="43">
-        <v>51.321204467012898</v>
+        <v>60.024926711672599</v>
       </c>
       <c r="H93" s="44">
-        <v>31535.883581274898</v>
+        <v>31616.699193858702</v>
       </c>
       <c r="I93" s="42">
         <v>63.511649936189599</v>
@@ -4238,28 +4238,28 @@
         <v>156</v>
       </c>
       <c r="C94" s="42">
-        <v>6.1942961540312398</v>
+        <v>6.9898468072886502</v>
       </c>
       <c r="D94" s="42">
-        <v>48.566287233993997</v>
+        <v>57.386338316481897</v>
       </c>
       <c r="E94" s="42">
-        <v>80.855496839140201</v>
+        <v>79.6352692483281</v>
       </c>
       <c r="F94" s="42">
-        <v>12.059316601231499</v>
+        <v>10.2331019759838</v>
       </c>
       <c r="G94" s="43">
-        <v>57.305901526181302</v>
+        <v>48.391641870570197</v>
       </c>
       <c r="H94" s="44">
-        <v>246467.19974961001</v>
+        <v>3871568.1156170899</v>
       </c>
       <c r="I94" s="42">
-        <v>70.898845930115002</v>
+        <v>69.751536042339694</v>
       </c>
       <c r="J94" s="43">
-        <v>58.868950575177202</v>
+        <v>57.281613711199199</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -4268,22 +4268,22 @@
         <v>157</v>
       </c>
       <c r="C95" s="42">
-        <v>0.17138731806608001</v>
+        <v>0.35931055283681002</v>
       </c>
       <c r="D95" s="42">
-        <v>17.5992041562005</v>
+        <v>14.7569474529716</v>
       </c>
       <c r="E95" s="42">
-        <v>58.499014557389501</v>
+        <v>58.220726056585796</v>
       </c>
       <c r="F95" s="42">
-        <v>0.55039636100709</v>
+        <v>0.71275742027593003</v>
       </c>
       <c r="G95" s="43">
-        <v>31.505292573488699</v>
+        <v>25.335068311347101</v>
       </c>
       <c r="H95" s="44">
-        <v>36367.575445330098</v>
+        <v>36001.757349601001</v>
       </c>
       <c r="I95" s="42">
         <v>55.950807145904598</v>
@@ -4298,22 +4298,22 @@
         <v>158</v>
       </c>
       <c r="C96" s="46">
-        <v>6.3917069415941601</v>
+        <v>7.8836902362253598</v>
       </c>
       <c r="D96" s="46">
-        <v>43.262914947973798</v>
+        <v>51.4217113965111</v>
       </c>
       <c r="E96" s="46">
-        <v>104.405144547215</v>
+        <v>103.822422804281</v>
       </c>
       <c r="F96" s="46">
-        <v>9.2227177419580002</v>
+        <v>9.3352835831631999</v>
       </c>
       <c r="G96" s="47">
-        <v>60.580649962116503</v>
+        <v>59.010182413199601</v>
       </c>
       <c r="H96" s="48">
-        <v>498298.877854652</v>
+        <v>511070.99108655303</v>
       </c>
       <c r="I96" s="46">
         <v>72.452250181351104</v>
@@ -4328,28 +4328,28 @@
         <v>159</v>
       </c>
       <c r="C97" s="50">
-        <v>0.29537701373517999</v>
+        <v>0.48338120254257</v>
       </c>
       <c r="D97" s="50">
-        <v>22.759858295734499</v>
+        <v>24.596741065146499</v>
       </c>
       <c r="E97" s="50">
-        <v>71.506849207206898</v>
+        <v>71.168634194175993</v>
       </c>
       <c r="F97" s="50">
-        <v>0.42235866854109</v>
+        <v>0.68896501687022005</v>
       </c>
       <c r="G97" s="51">
-        <v>29.618762780503399</v>
+        <v>26.607079682088099</v>
       </c>
       <c r="H97" s="52">
-        <v>722340.04850568401</v>
+        <v>643511.49565396295</v>
       </c>
       <c r="I97" s="50">
-        <v>53.313468850154898</v>
+        <v>53.207229588745498</v>
       </c>
       <c r="J97" s="51">
-        <v>23.889107367080999</v>
+        <v>23.819489556748501</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4358,28 +4358,28 @@
         <v>160</v>
       </c>
       <c r="C98" s="46">
-        <v>4.3390784749556301</v>
+        <v>4.4335880473894802</v>
       </c>
       <c r="D98" s="46">
-        <v>28.442159539984502</v>
+        <v>32.152292104944401</v>
       </c>
       <c r="E98" s="46">
-        <v>88.614843200425796</v>
+        <v>91.058509567846201</v>
       </c>
       <c r="F98" s="46">
-        <v>7.4919949875811698</v>
+        <v>6.5434534426128099</v>
       </c>
       <c r="G98" s="47">
-        <v>46.810180150635098</v>
+        <v>45.694194215715001</v>
       </c>
       <c r="H98" s="48">
-        <v>1745327.4087221101</v>
+        <v>1660192.9548019799</v>
       </c>
       <c r="I98" s="46">
-        <v>75.076525538585301</v>
+        <v>75.107079713759106</v>
       </c>
       <c r="J98" s="47">
-        <v>29.875277893197701</v>
+        <v>30.055116979754899</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4564,11 +4564,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{314C0743-8752-4538-8ADE-5297918B8374}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BC4160AC-C260-467D-B1B1-C466F76F4C83}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{DD5BA086-D2B7-4B25-B48C-D7AE76F48DC9}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{847A253C-4AE1-4EE7-9A44-4B0904794D8B}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{3D21901D-4F7C-46A3-87E8-3360B128A6F5}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8FC34CA7-64AA-410F-8307-3737CB8614F3}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5972FABB-7E0F-4524-82FF-B3F3FC401A7B}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{1ADA88DA-1DC4-4AAD-B9AA-83873CB7CCDB}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{C79A7F44-49EE-4B93-A8CF-FCFCB6DBE77F}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{963F8881-EB78-43B4-894E-7B646A01AC1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{389650AD-A294-4D68-8B06-62FF42C3D657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22FD0FB4-0EC8-4A03-9C11-207EFEBB4D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{015DA2B2-A75E-46DB-8802-3D31144B6C4A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8BF6BC09-C88F-4F49-855E-D4F7D8D63BD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D3A9C2-5732-41A1-9731-5A0B01FEF7F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15610DD-B012-4BDA-A8B1-E3DAE556A4D9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4564,11 +4564,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8FC34CA7-64AA-410F-8307-3737CB8614F3}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5972FABB-7E0F-4524-82FF-B3F3FC401A7B}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{1ADA88DA-1DC4-4AAD-B9AA-83873CB7CCDB}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{C79A7F44-49EE-4B93-A8CF-FCFCB6DBE77F}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{963F8881-EB78-43B4-894E-7B646A01AC1D}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{377FC3A4-B93C-405C-B6C9-69F1A4FAAD23}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{3C4FB190-DECF-48E1-9501-95F299697F05}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{FA6CEA1B-E62E-41AE-A41C-A6F29C5E5F75}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{AAC41A52-E84E-46FC-9627-C51C30C7DEDD}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{C3667FB8-82EF-4E7A-836A-B096C4F9E353}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22FD0FB4-0EC8-4A03-9C11-207EFEBB4D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB2B62CC-9906-4EE9-9120-8537D961E9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8BF6BC09-C88F-4F49-855E-D4F7D8D63BD5}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{49673A3F-5569-45D5-9CFF-C9E4D069B24E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15610DD-B012-4BDA-A8B1-E3DAE556A4D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0BC6D5-6587-4FFF-9CCC-1D8AAE316322}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4564,11 +4564,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{377FC3A4-B93C-405C-B6C9-69F1A4FAAD23}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{3C4FB190-DECF-48E1-9501-95F299697F05}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{FA6CEA1B-E62E-41AE-A41C-A6F29C5E5F75}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{AAC41A52-E84E-46FC-9627-C51C30C7DEDD}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{C3667FB8-82EF-4E7A-836A-B096C4F9E353}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C1DA9BCB-C782-4907-98FA-B0957BCE7DAC}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{531CF779-2050-4991-A6DF-C4216682D64E}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{E02AE442-D6A5-4EF6-905B-2D8722C38BFD}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{E7B7BCEA-0B59-4BDC-80B1-745091797439}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{42A43C17-054D-4C50-BAA0-B6133B8646CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB2B62CC-9906-4EE9-9120-8537D961E9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CD9E851-9EB7-4282-BA57-9CACAF682BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{49673A3F-5569-45D5-9CFF-C9E4D069B24E}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{814C21FE-1996-4A3C-B6A8-8838B6E7641B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="172">
   <si>
     <t>Tableau 11 : Infrastructure de communications</t>
   </si>
@@ -540,16 +540,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0BC6D5-6587-4FFF-9CCC-1D8AAE316322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B3DB85-58AF-45A0-86F8-FCED34E4D467}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4496,7 +4499,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C109" s="55"/>
       <c r="D109" s="55"/>
@@ -4508,7 +4511,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C110" s="55"/>
       <c r="D110" s="55"/>
@@ -4519,7 +4522,9 @@
       <c r="J110" s="55"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="C111" s="55"/>
       <c r="D111" s="55"/>
       <c r="E111" s="55"/>
@@ -4530,7 +4535,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="55"/>
@@ -4542,7 +4547,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C113" s="55"/>
       <c r="D113" s="55"/>
@@ -4564,13 +4569,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C1DA9BCB-C782-4907-98FA-B0957BCE7DAC}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{531CF779-2050-4991-A6DF-C4216682D64E}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{E02AE442-D6A5-4EF6-905B-2D8722C38BFD}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{E7B7BCEA-0B59-4BDC-80B1-745091797439}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{42A43C17-054D-4C50-BAA0-B6133B8646CE}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{20CC3741-D97C-4990-9294-68A58246673B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2B5F5E54-8781-455F-A47B-022BF11B7204}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{C04FCE7F-A2A3-4913-A0DA-3CCAD7B778C6}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{A234A63B-A48D-4BC5-AD47-A518B556CC19}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{3E38D5EB-E6A2-4D0C-B338-DA3F91D0747B}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{DD66C926-86D1-47BE-8DE6-42DFEF98F541}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CD9E851-9EB7-4282-BA57-9CACAF682BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{424E077E-A319-4D4C-A1B6-BF0D883A14C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{814C21FE-1996-4A3C-B6A8-8838B6E7641B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{1304301B-FCEC-466E-B74A-7B55A3871DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab11'!$A$1:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab11'!$A$1:$H$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B3DB85-58AF-45A0-86F8-FCED34E4D467}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEEEB0B-5BE6-4BEB-9D9A-A2261A8FC24A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1334,17 +1334,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1357,7 +1357,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>42.330620000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>46.540019999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>20.128050000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>16.457840000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>17.348590000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>54.700890000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>48.762569999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>29.62567</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>31.997789999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>32</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>33.866268241319297</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>16.298079999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>28.949380000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>8.2267499999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>8.0051839999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>25.9636</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>19.668240000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>48</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>50.621380000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>50</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>32</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>20.0355308870149</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>53</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>32.669620000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>9.9774370000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>50.82938</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>12.790419999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>65</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>64.126570000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>67</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>12.628209999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>69</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>71</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>17.94828</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>73</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>4.9471340000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>75</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>77</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>19.938009999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>79</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>30.846520000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
         <v>32</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>21.4206268968362</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>82</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>54.571330000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>84</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>36.668050000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>86</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>68.667180000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>88</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>31.663229999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>90</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>47.104289999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>92</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>50.508940000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
         <v>32</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>43.896733695831898</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>95</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>18.788419999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>97</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>18.44022</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>99</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>101</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>28.312000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>103</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>34.044640000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>105</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>32.587710000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>107</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>20.45448</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>109</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>111</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>20.783860000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>113</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>21.089400000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>115</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>9.2337070000000008</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>117</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>31.543589999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>119</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>31.423069999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>121</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>13.556100000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>123</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>20.511690000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="21"/>
       <c r="B61" s="22" t="s">
         <v>125</v>
@@ -3275,7 +3275,7 @@
         <v>27.345011031190701</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31"/>
       <c r="B62" s="32" t="s">
         <v>126</v>
@@ -3305,7 +3305,7 @@
         <v>28.402395358425</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31"/>
       <c r="B63" s="36" t="s">
         <v>127</v>
@@ -3335,7 +3335,7 @@
         <v>52.743707425910401</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="41" t="s">
         <v>128</v>
@@ -3365,7 +3365,7 @@
         <v>58.188231226302499</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="32" t="s">
         <v>129</v>
@@ -3395,7 +3395,7 @@
         <v>40.992451796917699</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="40"/>
       <c r="B66" s="45" t="s">
         <v>130</v>
@@ -3425,7 +3425,7 @@
         <v>48.798104427191902</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="49" t="s">
         <v>131</v>
@@ -3449,13 +3449,13 @@
         <v>1278113.76232561</v>
       </c>
       <c r="I67" s="50">
-        <v>62.926791416041297</v>
+        <v>62.926791416041397</v>
       </c>
       <c r="J67" s="51">
         <v>26.160281719162001</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="32" t="s">
         <v>132</v>
@@ -3485,7 +3485,7 @@
         <v>30.3552338651597</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="32" t="s">
         <v>133</v>
@@ -3515,7 +3515,7 @@
         <v>26.147645740404101</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="32" t="s">
         <v>134</v>
@@ -3545,7 +3545,7 @@
         <v>19.471305824523899</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="32" t="s">
         <v>135</v>
@@ -3575,7 +3575,7 @@
         <v>27.345011031190701</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="32" t="s">
         <v>136</v>
@@ -3605,7 +3605,7 @@
         <v>23.014065908429298</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="32" t="s">
         <v>137</v>
@@ -3635,7 +3635,7 @@
         <v>25.8336049191537</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="32" t="s">
         <v>137</v>
@@ -3665,7 +3665,7 @@
         <v>51.355839804158599</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="40"/>
       <c r="B75" s="45" t="s">
         <v>138</v>
@@ -3695,7 +3695,7 @@
         <v>17.348590000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="49" t="s">
         <v>139</v>
@@ -3725,7 +3725,7 @@
         <v>43.783230947781703</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="32" t="s">
         <v>140</v>
@@ -3755,7 +3755,7 @@
         <v>63.070998122296203</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="32" t="s">
         <v>140</v>
@@ -3785,7 +3785,7 @@
         <v>84.516005493724293</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="40"/>
       <c r="B79" s="45" t="s">
         <v>141</v>
@@ -3815,7 +3815,7 @@
         <v>80.8652401011216</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="49" t="s">
         <v>142</v>
@@ -3845,7 +3845,7 @@
         <v>38.195971740035603</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="32" t="s">
         <v>143</v>
@@ -3875,7 +3875,7 @@
         <v>63.1429241391047</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="32" t="s">
         <v>144</v>
@@ -3905,7 +3905,7 @@
         <v>27.651120247470399</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="40"/>
       <c r="B83" s="45" t="s">
         <v>145</v>
@@ -3935,7 +3935,7 @@
         <v>51.897279232490902</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="49" t="s">
         <v>146</v>
@@ -3965,7 +3965,7 @@
         <v>16.642957614965699</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="32" t="s">
         <v>147</v>
@@ -3995,7 +3995,7 @@
         <v>18.0816824822281</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="32" t="s">
         <v>148</v>
@@ -4025,7 +4025,7 @@
         <v>35.106482948232802</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="32" t="s">
         <v>149</v>
@@ -4055,7 +4055,7 @@
         <v>27.5333473524699</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="32" t="s">
         <v>150</v>
@@ -4085,7 +4085,7 @@
         <v>50.861088136589899</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="32" t="s">
         <v>151</v>
@@ -4115,7 +4115,7 @@
         <v>64.608990796111399</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="40"/>
       <c r="B90" s="45" t="s">
         <v>152</v>
@@ -4145,7 +4145,7 @@
         <v>85.608998063436502</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="49" t="s">
         <v>153</v>
@@ -4175,7 +4175,7 @@
         <v>17.5372652501012</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="32" t="s">
         <v>154</v>
@@ -4205,7 +4205,7 @@
         <v>24.115790150398698</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="32" t="s">
         <v>155</v>
@@ -4235,7 +4235,7 @@
         <v>52.338893395915001</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="32" t="s">
         <v>156</v>
@@ -4265,7 +4265,7 @@
         <v>57.281613711199199</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="32" t="s">
         <v>157</v>
@@ -4295,7 +4295,7 @@
         <v>16.697953028109399</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="40"/>
       <c r="B96" s="45" t="s">
         <v>158</v>
@@ -4325,67 +4325,67 @@
         <v>40.562181078157899</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="49" t="s">
         <v>159</v>
       </c>
       <c r="C97" s="50">
-        <v>0.48338120254257</v>
+        <v>0.56318884957869997</v>
       </c>
       <c r="D97" s="50">
-        <v>24.596741065146499</v>
+        <v>26.537375356280499</v>
       </c>
       <c r="E97" s="50">
-        <v>71.168634194175993</v>
+        <v>76.474112224555299</v>
       </c>
       <c r="F97" s="50">
-        <v>0.68896501687022005</v>
+        <v>0.73576110211611001</v>
       </c>
       <c r="G97" s="51">
-        <v>26.607079682088099</v>
+        <v>28.588177796322299</v>
       </c>
       <c r="H97" s="52">
-        <v>643511.49565396295</v>
+        <v>842905.22956505604</v>
       </c>
       <c r="I97" s="50">
-        <v>53.207229588745498</v>
+        <v>57.498311168908401</v>
       </c>
       <c r="J97" s="51">
-        <v>23.819489556748501</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25.267971338376999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="40"/>
       <c r="B98" s="45" t="s">
         <v>160</v>
       </c>
       <c r="C98" s="46">
-        <v>4.4335880473894802</v>
+        <v>4.1590685805839298</v>
       </c>
       <c r="D98" s="46">
-        <v>32.152292104944401</v>
+        <v>32.135292849530899</v>
       </c>
       <c r="E98" s="46">
-        <v>91.058509567846201</v>
+        <v>95.525715488116603</v>
       </c>
       <c r="F98" s="46">
-        <v>6.5434534426128099</v>
+        <v>6.8758422491245801</v>
       </c>
       <c r="G98" s="47">
-        <v>45.694194215715001</v>
+        <v>50.900082808909602</v>
       </c>
       <c r="H98" s="48">
-        <v>1660192.9548019799</v>
+        <v>1792876.9873390901</v>
       </c>
       <c r="I98" s="46">
-        <v>75.107079713759106</v>
+        <v>80.413810560134095</v>
       </c>
       <c r="J98" s="47">
-        <v>30.055116979754899</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+        <v>29.6264260164983</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="53"/>
       <c r="B99" s="54"/>
       <c r="C99" s="35"/>
@@ -4397,7 +4397,7 @@
       <c r="I99" s="35"/>
       <c r="J99" s="35"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -4409,7 +4409,7 @@
       <c r="I100" s="55"/>
       <c r="J100" s="55"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
@@ -4421,7 +4421,7 @@
       <c r="I101" s="55"/>
       <c r="J101" s="55"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
@@ -4433,7 +4433,7 @@
       <c r="I102" s="55"/>
       <c r="J102" s="55"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="I103" s="55"/>
       <c r="J103" s="55"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>165</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="I104" s="55"/>
       <c r="J104" s="55"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C105" s="55"/>
       <c r="D105" s="55"/>
       <c r="E105" s="55"/>
@@ -4466,7 +4466,7 @@
       <c r="I105" s="55"/>
       <c r="J105" s="55"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C106" s="55"/>
       <c r="D106" s="55"/>
       <c r="E106" s="55"/>
@@ -4475,7 +4475,7 @@
       <c r="I106" s="55"/>
       <c r="J106" s="55"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="56" t="s">
         <v>166</v>
       </c>
@@ -4487,7 +4487,7 @@
       <c r="I107" s="55"/>
       <c r="J107" s="55"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="56"/>
       <c r="C108" s="55"/>
       <c r="D108" s="55"/>
@@ -4497,7 +4497,7 @@
       <c r="I108" s="55"/>
       <c r="J108" s="55"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>169</v>
       </c>
@@ -4509,7 +4509,7 @@
       <c r="I109" s="55"/>
       <c r="J109" s="55"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>170</v>
       </c>
@@ -4521,7 +4521,7 @@
       <c r="I110" s="55"/>
       <c r="J110" s="55"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>171</v>
       </c>
@@ -4533,7 +4533,7 @@
       <c r="I111" s="55"/>
       <c r="J111" s="55"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>167</v>
       </c>
@@ -4545,7 +4545,7 @@
       <c r="I112" s="55"/>
       <c r="J112" s="55"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>168</v>
       </c>
@@ -4557,7 +4557,7 @@
       <c r="I113" s="55"/>
       <c r="J113" s="55"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="55"/>
       <c r="D114" s="55"/>
@@ -4569,12 +4569,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{20CC3741-D97C-4990-9294-68A58246673B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2B5F5E54-8781-455F-A47B-022BF11B7204}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{C04FCE7F-A2A3-4913-A0DA-3CCAD7B778C6}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{A234A63B-A48D-4BC5-AD47-A518B556CC19}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{3E38D5EB-E6A2-4D0C-B338-DA3F91D0747B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{DD66C926-86D1-47BE-8DE6-42DFEF98F541}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4567652A-5D75-4046-8ECD-B56D7169BF1B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9DD791CB-8F7A-460E-A6EA-B01DE55364E1}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{A919C325-1839-497E-9F47-9B87CE2217FC}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{6AB76651-AB0C-4191-82B9-8F2F33287167}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{7D204DB5-CB94-4DEA-BF8A-C690A21F7395}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{0E25E4CE-0F31-4FAE-AD29-83C41504EB5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId7"/>
